--- a/Experiments/FogBench/results/YOLO.xlsx
+++ b/Experiments/FogBench/results/YOLO.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcch\Documents\csc4006Gitlab\csc4006-EdgeBenchmarking\Experiments\FogBench\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9814991-575B-4808-8045-7FC4AFA41D6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96129ADC-ED23-4812-856D-E81383FF85CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{57C0B43A-DBB0-4E4B-A2E6-7000C37381A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{57C0B43A-DBB0-4E4B-A2E6-7000C37381A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud" sheetId="1" r:id="rId1"/>
     <sheet name="Edge" sheetId="2" r:id="rId2"/>
-    <sheet name="Cloud-Edge" sheetId="3" r:id="rId3"/>
+    <sheet name="Rasp" sheetId="4" r:id="rId3"/>
+    <sheet name="Cloud-Edge" sheetId="3" r:id="rId4"/>
+    <sheet name="Cloud-Edge Rasp" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="26">
   <si>
     <t>T1</t>
   </si>
@@ -97,12 +100,27 @@
   <si>
     <t>CL</t>
   </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 1</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 2</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 3</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +128,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,15 +445,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,7 +777,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.6563640000000017</c:v>
+                  <c:v>2.6563639999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.4289407000000001</c:v>
@@ -759,7 +1273,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.329440806000001</c:v>
+                  <c:v>14.329440805999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.191534888</c:v>
@@ -1142,6 +1656,1078 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Communication Latency - Yolo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud-Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cloud-Edge'!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6563639999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4289407000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4875255000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9785-45D2-A1F2-60E62020B546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.6826726999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5786889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7167808000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9785-45D2-A1F2-60E62020B546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6168320000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6587479999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7458407999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9785-45D2-A1F2-60E62020B546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2463002000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4132612999999949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2574441000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9785-45D2-A1F2-60E62020B546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Communication Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Computation Latency - Yolo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud-Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cloud-Edge'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.329440805999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.191534888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.195203282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A576-4A92-A3FD-2C0F2E6F0F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.8346970049999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2971024330000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3456697870000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A576-4A92-A3FD-2C0F2E6F0F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.511356351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.596151654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.699462568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A576-4A92-A3FD-2C0F2E6F0F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.769541353000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.800048216999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.119355902999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A576-4A92-A3FD-2C0F2E6F0F38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Computation Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1222,6 +2808,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2228,20 +3894,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2270,14 +4942,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2299,6 +4971,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C2C9DC-E993-4F20-B175-F47D292D30EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E906D1E0-9CD6-43C1-B0F5-10F7619A10C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2604,10 +5352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B742A5CC-64E6-4C84-9568-7D515AC2903E}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,6 +5561,68 @@
       <c r="P4">
         <f t="shared" si="0"/>
         <v>3.7167808000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.6168348666666665</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>1.8331089416666666</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.64112761499999993</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.0425459333333333</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5.4924897416666667</v>
+      </c>
+      <c r="F6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.1470333333333335E-6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>232714.66666666666</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>827384</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>141822.01834849763</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>405005.17554806004</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>3.6593807999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2822,10 +5632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF757B6B-21A1-431F-9596-883AB6187EA5}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,17 +5843,359 @@
         <v>2.7458407999999999</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.3529549999999999</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>11.928516590999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.0326685603333332</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.3208519333333333</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>14.602323524333334</v>
+      </c>
+      <c r="F6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.65075E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>233060</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>827964</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>167214.11568167768</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>627621.38401713397</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>2.6738069333333332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE41188E-A3DA-45C4-ADD3-E457168BE056}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFF6EA2-E513-4329-968A-FAFEB095CF5A}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.82563299999999995</v>
+      </c>
+      <c r="B2">
+        <v>37.523241153000001</v>
+      </c>
+      <c r="C2">
+        <v>2.7200002310000002</v>
+      </c>
+      <c r="D2">
+        <v>1.4206672</v>
+      </c>
+      <c r="E2">
+        <v>39.769541353000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>8.3384099999999993E-5</v>
+      </c>
+      <c r="H2">
+        <v>167188</v>
+      </c>
+      <c r="I2">
+        <v>879348</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>202496.75097773399</v>
+      </c>
+      <c r="L2">
+        <v>618968.32699452701</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <f>E2-B2</f>
+        <v>2.2463002000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.95693640000000002</v>
+      </c>
+      <c r="B3">
+        <v>37.386786917000002</v>
+      </c>
+      <c r="C3">
+        <v>2.7157162540000002</v>
+      </c>
+      <c r="D3">
+        <v>1.4563249</v>
+      </c>
+      <c r="E3">
+        <v>39.800048216999997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>8.3080900000000006E-5</v>
+      </c>
+      <c r="H3">
+        <v>145296</v>
+      </c>
+      <c r="I3">
+        <v>837896</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>151834.5419821</v>
+      </c>
+      <c r="L3">
+        <v>575349.635235928</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="0">E3-B3</f>
+        <v>2.4132612999999949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.82085779999999997</v>
+      </c>
+      <c r="B4">
+        <v>36.861911802999998</v>
+      </c>
+      <c r="C4">
+        <v>2.6693625110000001</v>
+      </c>
+      <c r="D4">
+        <v>1.4365863000000001</v>
+      </c>
+      <c r="E4">
+        <v>39.119355902999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>8.1914499999999996E-5</v>
+      </c>
+      <c r="H4">
+        <v>386656</v>
+      </c>
+      <c r="I4">
+        <v>765640</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>471038.95461552503</v>
+      </c>
+      <c r="L4">
+        <v>532957.88773706101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2.2574441000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>0.86780906666666657</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>37.257313291000003</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.7016929986666667</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.4378594666666666</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>39.562981824333335</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.2793166666666679E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>233046.66666666666</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>827628</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>275123.41585845297</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>575758.61665583868</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>2.305668533333332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE41188E-A3DA-45C4-ADD3-E457168BE056}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,7 +6259,7 @@
         <v>1.0737365000000001</v>
       </c>
       <c r="B2">
-        <v>13.673076805999999</v>
+        <v>11.673076805999999</v>
       </c>
       <c r="C2">
         <v>2.809195205</v>
@@ -3116,7 +6268,7 @@
         <v>1.5826275000000001</v>
       </c>
       <c r="E2">
-        <v>16.329440806000001</v>
+        <v>14.329440805999999</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -3139,8 +6291,8 @@
       <c r="L2">
         <v>555895.81250167801</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
+      <c r="M2">
+        <v>2237789.5348556801</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
@@ -3150,7 +6302,7 @@
       </c>
       <c r="P2">
         <f>E2-B2</f>
-        <v>2.6563640000000017</v>
+        <v>2.6563639999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3190,8 +6342,8 @@
       <c r="L3">
         <v>605259.44337046205</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
+      <c r="M3">
+        <v>1805897.8976922999</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
@@ -3241,8 +6393,8 @@
       <c r="L4">
         <v>574929.85306159104</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
+      <c r="M4">
+        <v>2451579.7549344702</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
@@ -3253,10 +6405,1361 @@
       <c r="P4">
         <f t="shared" si="0"/>
         <v>2.4875255000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.0908819666666667</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>11.714449591999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.4083145343333334</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.4333947666666669</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>14.238726325333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.75133E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>233060</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>828062.66666666663</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>35459092</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>209897.58895158899</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>578695.03631124378</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>2165089.0624941499</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>2.5242767333333336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99846AEF-FCC0-4829-A2FA-267F8DCED209}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.84769190000000005</v>
+      </c>
+      <c r="B2" s="2">
+        <v>37.130033351000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.893002938</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.6818812000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39.659606451000002</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.2510300000000002E-5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>167188</v>
+      </c>
+      <c r="I2" s="2">
+        <v>879440</v>
+      </c>
+      <c r="J2" s="2">
+        <v>35459092</v>
+      </c>
+      <c r="K2" s="2">
+        <v>197227.31808573299</v>
+      </c>
+      <c r="L2" s="2">
+        <v>522890.677415265</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1564748.9569381201</v>
+      </c>
+      <c r="N2" s="2">
+        <v>22.661201877</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.5295730999999999</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.85528490000000001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39.057522366999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.9322513649999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.5987188999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>41.511526167</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8.6793599999999995E-5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>145296</v>
+      </c>
+      <c r="I3" s="2">
+        <v>837968</v>
+      </c>
+      <c r="J3" s="2">
+        <v>35459092</v>
+      </c>
+      <c r="K3" s="2">
+        <v>169880.23522922001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>524149.68009698199</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1004138.86309419</v>
+      </c>
+      <c r="N3" s="2">
+        <v>35.31293659</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.4540038000000002</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.99040189999999995</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36.897030956000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.7273497689999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.393562</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.280994856</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.1992500000000005E-5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>386656</v>
+      </c>
+      <c r="I4" s="2">
+        <v>765712</v>
+      </c>
+      <c r="J4" s="2">
+        <v>35459092</v>
+      </c>
+      <c r="K4" s="2">
+        <v>390403.12826540403</v>
+      </c>
+      <c r="L4" s="2">
+        <v>549463.89181105595</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1323690.81549482</v>
+      </c>
+      <c r="N4" s="2">
+        <v>26.788047166999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.3839638999999999</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>(A2+A3+A4)/3</f>
+        <v>0.89779290000000012</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:Q6" si="0">(B2+B3+B4)/3</f>
+        <v>37.694862224666672</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8508680239999999</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5580540333333335</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>40.150709158000005</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3765466666666663E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>233046.66666666666</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>827706.66666666663</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>35459092</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>252503.56052678567</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>532168.08310776763</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>1297526.2118423767</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>28.254061878000002</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4558469333333335</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370B94FD-8DC0-4F1F-976E-F898FD9F1D2C}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.79601630000000001</v>
+      </c>
+      <c r="B2" s="4">
+        <v>38.464511002999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.8967255619999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.4379424999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>40.698469803000002</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8.5475800000000006E-5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>167188</v>
+      </c>
+      <c r="I2" s="4">
+        <v>879420</v>
+      </c>
+      <c r="J2" s="4">
+        <v>35459092</v>
+      </c>
+      <c r="K2" s="4">
+        <v>210030.87499590099</v>
+      </c>
+      <c r="L2" s="4">
+        <v>611582.17383518396</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1517571.31090206</v>
+      </c>
+      <c r="N2" s="4">
+        <v>23.365684199</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.2339587999999999</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.79346430000000001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>38.268330206999998</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.7865235249999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.4832691</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40.545063607000003</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.5039799999999999E-5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>145296</v>
+      </c>
+      <c r="I3" s="4">
+        <v>837968</v>
+      </c>
+      <c r="J3" s="4">
+        <v>35459092</v>
+      </c>
+      <c r="K3" s="4">
+        <v>183115.98896131801</v>
+      </c>
+      <c r="L3" s="4">
+        <v>564946.71128792397</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1601315.52611359</v>
+      </c>
+      <c r="N3" s="4">
+        <v>22.143725843999999</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.2767333999999999</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.93334930000000005</v>
+      </c>
+      <c r="B4" s="4">
+        <v>37.730551065999997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.7200480059999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.3468823999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>40.010782765999998</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.3844799999999994E-5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>386656</v>
+      </c>
+      <c r="I4" s="4">
+        <v>765712</v>
+      </c>
+      <c r="J4" s="4">
+        <v>35459492</v>
+      </c>
+      <c r="K4" s="4">
+        <v>414267.19878613501</v>
+      </c>
+      <c r="L4" s="4">
+        <v>568506.94611496804</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1548710.52144096</v>
+      </c>
+      <c r="N4" s="4">
+        <v>22.896139407</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.2802316999999999</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>(A2+A3+A4)/3</f>
+        <v>0.84094330000000006</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:Q6" si="0">(B2+B3+B4)/3</f>
+        <v>38.154464092000005</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1344323643333332</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4226979999999998</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>40.418105392000001</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>8.4786799999999999E-5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>233046.66666666666</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>827700</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>35459225.333333336</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>269138.02091445134</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>581678.61041269207</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>1555865.7861522033</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>22.801849816666664</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2636412999999997</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.77265059999999997</v>
+      </c>
+      <c r="B8" s="5">
+        <v>37.850307156</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.8307416829999998</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.7964382000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>40.419395956000002</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8.4110900000000001E-5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>167188</v>
+      </c>
+      <c r="I8" s="5">
+        <v>879480</v>
+      </c>
+      <c r="J8" s="5">
+        <v>35459092</v>
+      </c>
+      <c r="K8" s="5">
+        <v>216382.41140303199</v>
+      </c>
+      <c r="L8" s="5">
+        <v>489568.74775875901</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1409624.75480541</v>
+      </c>
+      <c r="N8" s="5">
+        <v>25.154986729000001</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.5690887999999998</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.75499450000000001</v>
+      </c>
+      <c r="B9" s="5">
+        <v>37.352275200000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.1670113820000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.452518</v>
+      </c>
+      <c r="E9" s="5">
+        <v>39.559787700000001</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8.3004199999999994E-5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>145296</v>
+      </c>
+      <c r="I9" s="5">
+        <v>837968</v>
+      </c>
+      <c r="J9" s="5">
+        <v>35459092</v>
+      </c>
+      <c r="K9" s="5">
+        <v>192446.43504025499</v>
+      </c>
+      <c r="L9" s="5">
+        <v>576907.13643479801</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1544144.5266158299</v>
+      </c>
+      <c r="N9" s="5">
+        <v>22.963583647</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.2075125</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.88368930000000001</v>
+      </c>
+      <c r="B10" s="5">
+        <v>36.898915676999998</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.7023583470000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.3689294000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>39.151534376999997</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8.19967E-5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>386656</v>
+      </c>
+      <c r="I10" s="5">
+        <v>765712</v>
+      </c>
+      <c r="J10" s="5">
+        <v>35459472</v>
+      </c>
+      <c r="K10" s="5">
+        <v>437547.45021808002</v>
+      </c>
+      <c r="L10" s="5">
+        <v>559350.97894748906</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1515323.4086571599</v>
+      </c>
+      <c r="N10" s="5">
+        <v>23.400596729</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.2526187000000002</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>(A8+A9+A10)/3</f>
+        <v>0.80377813333333326</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" ref="B12:Q12" si="1">(B8+B9+B10)/3</f>
+        <v>37.367166010999995</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9000371373333333</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5392952</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>39.710239344333331</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>8.3037266666666665E-5</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>233046.66666666666</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>827720</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>35459218.666666664</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>282125.43222045567</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="1"/>
+        <v>541942.28771368205</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="1"/>
+        <v>1489697.5633594666</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>23.839722368333337</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3430733333333333</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>0.77397150000000003</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45.512305040000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.1553398289999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.4605078</v>
+      </c>
+      <c r="E14" s="6">
+        <v>47.746784339999998</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0113740000000001E-4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>167188</v>
+      </c>
+      <c r="I14" s="6">
+        <v>879480</v>
+      </c>
+      <c r="J14" s="6">
+        <v>35459092</v>
+      </c>
+      <c r="K14" s="6">
+        <v>216013.1219302</v>
+      </c>
+      <c r="L14" s="6">
+        <v>602174.12053533702</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1595708.9445654601</v>
+      </c>
+      <c r="N14" s="6">
+        <v>22.221528631999998</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2.2344792999999998</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>0.75755499999999998</v>
+      </c>
+      <c r="B15" s="6">
+        <v>47.839786234999998</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.2095541000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.4973656</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50.094706834999997</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.063095E-4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>145296</v>
+      </c>
+      <c r="I15" s="6">
+        <v>838028</v>
+      </c>
+      <c r="J15" s="6">
+        <v>35459092</v>
+      </c>
+      <c r="K15" s="6">
+        <v>191795.97520972</v>
+      </c>
+      <c r="L15" s="6">
+        <v>559668.26004283701</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1598698.98386475</v>
+      </c>
+      <c r="N15" s="6">
+        <v>22.179967810000001</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2.2549206000000002</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>0.86374580000000001</v>
+      </c>
+      <c r="B16" s="6">
+        <v>49.415748161000003</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3.1246663090000002</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.4896708999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>51.769164861</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1.098116E-4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>386656</v>
+      </c>
+      <c r="I16" s="6">
+        <v>765712</v>
+      </c>
+      <c r="J16" s="6">
+        <v>35459092</v>
+      </c>
+      <c r="K16" s="6">
+        <v>447650.22301700298</v>
+      </c>
+      <c r="L16" s="6">
+        <v>514014.20273430803</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1539104.3615345999</v>
+      </c>
+      <c r="N16" s="6">
+        <v>23.038783389999999</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2.3534166999999999</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f>(A14+A15+A16)/3</f>
+        <v>0.79842410000000008</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" ref="B18:Q18" si="2">(B14+B15+B16)/3</f>
+        <v>47.589279812000001</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1631867459999996</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4825147666666665</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="2"/>
+        <v>49.870218678666667</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0575283333333334E-4</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>233046.66666666666</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>827740</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>35459092</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="2"/>
+        <v>285153.10671897436</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>558618.86110416066</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="2"/>
+        <v>1577837.4299882699</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="2"/>
+        <v>22.480093277333328</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2809388666666668</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1.0260796000000001</v>
+      </c>
+      <c r="B20" s="7">
+        <v>48.041014476000001</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3.6399753430000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.6150131000000001</v>
+      </c>
+      <c r="E20" s="7">
+        <v>50.682107176000002</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.067567E-4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>167188</v>
+      </c>
+      <c r="I20" s="7">
+        <v>879440</v>
+      </c>
+      <c r="J20" s="7">
+        <v>35459092</v>
+      </c>
+      <c r="K20" s="7">
+        <v>162938.62581421499</v>
+      </c>
+      <c r="L20" s="7">
+        <v>544540.47462525195</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1593435.2515267299</v>
+      </c>
+      <c r="N20" s="7">
+        <v>22.253236814000001</v>
+      </c>
+      <c r="O20" s="7">
+        <v>2.6410927000000002</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>0.96741370000000004</v>
+      </c>
+      <c r="B21" s="7">
+        <v>50.554481013999997</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.88182122</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.7375847</v>
+      </c>
+      <c r="E21" s="7">
+        <v>53.259479413999998</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.123421E-4</v>
+      </c>
+      <c r="H21" s="7">
+        <v>145296</v>
+      </c>
+      <c r="I21" s="7">
+        <v>837968</v>
+      </c>
+      <c r="J21" s="7">
+        <v>35459092</v>
+      </c>
+      <c r="K21" s="7">
+        <v>150190.14099138699</v>
+      </c>
+      <c r="L21" s="7">
+        <v>482260.23168827302</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1565645.70432515</v>
+      </c>
+      <c r="N21" s="7">
+        <v>22.648222328999999</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2.7049984</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>1.105645</v>
+      </c>
+      <c r="B22" s="7">
+        <v>51.841548811999999</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3.6002241210000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.5483477999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>54.495541611999997</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.152022E-4</v>
+      </c>
+      <c r="H22" s="7">
+        <v>386656</v>
+      </c>
+      <c r="I22" s="7">
+        <v>765712</v>
+      </c>
+      <c r="J22" s="7">
+        <v>35459092</v>
+      </c>
+      <c r="K22" s="7">
+        <v>349710.80229187402</v>
+      </c>
+      <c r="L22" s="7">
+        <v>494534.884216582</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1597268.65421018</v>
+      </c>
+      <c r="N22" s="7">
+        <v>22.199829632</v>
+      </c>
+      <c r="O22" s="7">
+        <v>2.6539928000000002</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <f>(A20+A21+A22)/3</f>
+        <v>1.0330461</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" ref="B24:Q24" si="3">(B20+B21+B22)/3</f>
+        <v>50.145681434000004</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7073402280000001</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6336485333333333</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="3"/>
+        <v>52.812376067333332</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1143366666666666E-4</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="3"/>
+        <v>233046.66666666666</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="3"/>
+        <v>827706.66666666663</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="3"/>
+        <v>35459092</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="3"/>
+        <v>220946.52303249203</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="3"/>
+        <v>507111.86351003568</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="3"/>
+        <v>1585449.8700206866</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="3"/>
+        <v>22.367096258333333</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.6666946333333335</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>